--- a/pred_ohlcv/54_21/2019-10-15 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 INS ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-3123.540700000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-6680.540700000001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-42192.6185</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-42191.6185</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-42192.6185</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-27829.20369999999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-27827.20369999999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-48408.06279999999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-48408.06279999999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-51854.33849999998</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-51604.33849999998</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-51604.33849999998</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-51604.33849999998</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-54578.22679999998</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-54579.22679999998</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-54578.22679999998</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-54578.22679999998</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-54577.22679999998</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-54977.22679999998</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-56245.68309999998</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-59676.73829999998</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-59926.73829999998</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-15 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 INS ohlcv.xlsx
@@ -1354,7 +1354,7 @@
         <v>-27829.20369999999</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-27827.20369999999</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-48408.06279999999</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-48408.06279999999</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-51854.33849999998</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-51604.33849999998</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-54594.22679999998</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-54593.22679999998</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-53697.18309999998</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-56245.68309999998</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-59962.60969999998</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-59962.60969999998</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-59962.60969999998</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-59723.04449999998</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-59723.04449999998</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-59723.04449999998</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-59768.61079999998</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-59676.73829999998</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-59926.73829999998</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
